--- a/平均每戶消費支出.xlsx
+++ b/平均每戶消費支出.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/Documents/GitHub/data_strategy_trash_policy_effect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF4C15-EAE7-894C-9826-9903FFF00EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E3762F-D1A1-4E4E-9AFA-8CE21F99EDB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-680" yWindow="540" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="323">
   <si>
     <t>新北市</t>
   </si>
@@ -1354,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IF381"/>
+  <dimension ref="A1:IF361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4975,661 +4975,441 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B322" t="s">
         <v>0</v>
       </c>
       <c r="C322" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B323" t="s">
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B325" t="s">
         <v>3</v>
       </c>
       <c r="C325" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
       </c>
       <c r="C328" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B330" t="s">
         <v>8</v>
       </c>
       <c r="C330" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B331" t="s">
         <v>9</v>
       </c>
       <c r="C331" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B333" t="s">
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B334" t="s">
         <v>12</v>
       </c>
       <c r="C334" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B335" t="s">
         <v>13</v>
       </c>
       <c r="C335" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B336" t="s">
         <v>14</v>
       </c>
       <c r="C336" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B337" t="s">
         <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B338" t="s">
         <v>16</v>
       </c>
       <c r="C338" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B339" t="s">
         <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B340" t="s">
         <v>18</v>
       </c>
       <c r="C340" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B341" t="s">
         <v>19</v>
       </c>
       <c r="C341" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B342" t="s">
         <v>0</v>
       </c>
       <c r="C342" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B343" t="s">
         <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B345" t="s">
         <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B346" t="s">
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B350" t="s">
         <v>8</v>
       </c>
       <c r="C350" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B352" t="s">
         <v>10</v>
       </c>
       <c r="C352" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B353" t="s">
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B354" t="s">
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B355" t="s">
         <v>13</v>
       </c>
       <c r="C355" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B356" t="s">
         <v>14</v>
       </c>
       <c r="C356" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B357" t="s">
         <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B358" t="s">
         <v>16</v>
       </c>
       <c r="C358" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B359" t="s">
         <v>17</v>
       </c>
       <c r="C359" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B360" t="s">
         <v>18</v>
       </c>
       <c r="C360" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B361" t="s">
         <v>19</v>
       </c>
       <c r="C361" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362">
-        <v>2018</v>
-      </c>
-      <c r="B362" t="s">
-        <v>0</v>
-      </c>
-      <c r="C362" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363">
-        <v>2018</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1</v>
-      </c>
-      <c r="C363" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364">
-        <v>2018</v>
-      </c>
-      <c r="B364" t="s">
-        <v>2</v>
-      </c>
-      <c r="C364" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365">
-        <v>2018</v>
-      </c>
-      <c r="B365" t="s">
-        <v>3</v>
-      </c>
-      <c r="C365" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366">
-        <v>2018</v>
-      </c>
-      <c r="B366" t="s">
-        <v>4</v>
-      </c>
-      <c r="C366" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367">
-        <v>2018</v>
-      </c>
-      <c r="B367" t="s">
-        <v>5</v>
-      </c>
-      <c r="C367" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368">
-        <v>2018</v>
-      </c>
-      <c r="B368" t="s">
-        <v>6</v>
-      </c>
-      <c r="C368" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369">
-        <v>2018</v>
-      </c>
-      <c r="B369" t="s">
-        <v>7</v>
-      </c>
-      <c r="C369" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370">
-        <v>2018</v>
-      </c>
-      <c r="B370" t="s">
-        <v>8</v>
-      </c>
-      <c r="C370" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371">
-        <v>2018</v>
-      </c>
-      <c r="B371" t="s">
-        <v>9</v>
-      </c>
-      <c r="C371" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372">
-        <v>2018</v>
-      </c>
-      <c r="B372" t="s">
-        <v>10</v>
-      </c>
-      <c r="C372" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373">
-        <v>2018</v>
-      </c>
-      <c r="B373" t="s">
-        <v>11</v>
-      </c>
-      <c r="C373" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374">
-        <v>2018</v>
-      </c>
-      <c r="B374" t="s">
-        <v>12</v>
-      </c>
-      <c r="C374" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375">
-        <v>2018</v>
-      </c>
-      <c r="B375" t="s">
-        <v>13</v>
-      </c>
-      <c r="C375" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376">
-        <v>2018</v>
-      </c>
-      <c r="B376" t="s">
-        <v>14</v>
-      </c>
-      <c r="C376" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377">
-        <v>2018</v>
-      </c>
-      <c r="B377" t="s">
-        <v>15</v>
-      </c>
-      <c r="C377" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378">
-        <v>2018</v>
-      </c>
-      <c r="B378" t="s">
-        <v>16</v>
-      </c>
-      <c r="C378" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379">
-        <v>2018</v>
-      </c>
-      <c r="B379" t="s">
-        <v>17</v>
-      </c>
-      <c r="C379" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380">
-        <v>2018</v>
-      </c>
-      <c r="B380" t="s">
-        <v>18</v>
-      </c>
-      <c r="C380" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381">
-        <v>2018</v>
-      </c>
-      <c r="B381" t="s">
-        <v>19</v>
-      </c>
-      <c r="C381" t="s">
         <v>319</v>
       </c>
     </row>
